--- a/算法训练营题目汇总-模板 -week07.xlsx
+++ b/算法训练营题目汇总-模板 -week07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>已完成</t>
   </si>
@@ -778,7 +778,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +827,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,12 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,238 +1152,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="70.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="70.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18">
+        <v>283</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="5" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="5" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="5" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="5" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="5" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="5" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="5" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="5" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="5" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="5" t="s">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="7" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="7" t="s">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="7" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1"/>
-    <row r="25" spans="1:4" ht="15" customHeight="1"/>
-    <row r="26" spans="1:4" ht="15" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15" customHeight="1"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1516,33 +1546,33 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
@@ -1579,10 +1609,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1591,26 +1621,26 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1619,42 +1649,42 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1663,56 +1693,56 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1721,42 +1751,42 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1765,16 +1795,16 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1783,16 +1813,16 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
@@ -1882,10 +1912,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1894,32 +1924,32 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1928,31 +1958,31 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1964,8 +1994,8 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1974,50 +2004,50 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2026,16 +2056,16 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2044,16 +2074,16 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>79</v>
       </c>
@@ -2140,10 +2170,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2155,8 +2185,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="11" t="s">
         <v>118</v>
       </c>
@@ -2166,8 +2196,8 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
         <v>106</v>
       </c>
@@ -2177,8 +2207,8 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>107</v>
       </c>
@@ -2188,8 +2218,8 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>114</v>
       </c>
@@ -2199,8 +2229,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
         <v>108</v>
       </c>
@@ -2210,8 +2240,8 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
         <v>119</v>
       </c>
@@ -2221,8 +2251,8 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="11" t="s">
         <v>109</v>
       </c>
@@ -2232,8 +2262,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>110</v>
       </c>
@@ -2243,8 +2273,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
         <v>111</v>
       </c>
@@ -2254,8 +2284,8 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
         <v>112</v>
       </c>
@@ -2265,8 +2295,8 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
         <v>117</v>
       </c>
@@ -2276,8 +2306,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2289,8 +2319,8 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="11" t="s">
         <v>90</v>
       </c>
@@ -2300,8 +2330,8 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="11" t="s">
         <v>91</v>
       </c>
@@ -2311,8 +2341,8 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="11" t="s">
         <v>92</v>
       </c>
@@ -2322,8 +2352,8 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
         <v>93</v>
       </c>
@@ -2333,8 +2363,8 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="11" t="s">
         <v>94</v>
       </c>
@@ -2344,8 +2374,8 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="11" t="s">
         <v>95</v>
       </c>
@@ -2355,8 +2385,8 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="11" t="s">
         <v>96</v>
       </c>
@@ -2366,8 +2396,8 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="11" t="s">
         <v>97</v>
       </c>
@@ -2377,8 +2407,8 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
         <v>98</v>
       </c>
@@ -2388,8 +2418,8 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
         <v>99</v>
       </c>
@@ -2399,8 +2429,8 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="11" t="s">
         <v>100</v>
       </c>
@@ -2410,8 +2440,8 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="11" t="s">
         <v>101</v>
       </c>
@@ -2501,10 +2531,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2516,8 +2546,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="11" t="s">
         <v>129</v>
       </c>
@@ -2527,8 +2557,8 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2540,8 +2570,8 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>127</v>
       </c>
@@ -2551,8 +2581,8 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
         <v>128</v>
       </c>
@@ -2562,10 +2592,10 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2577,8 +2607,8 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
         <v>131</v>
       </c>
@@ -2588,8 +2618,8 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="11" t="s">
         <v>132</v>
       </c>
@@ -2599,8 +2629,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>133</v>
       </c>
@@ -2610,8 +2640,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
         <v>134</v>
       </c>
@@ -2621,8 +2651,8 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2634,8 +2664,8 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
         <v>137</v>
       </c>
@@ -2645,8 +2675,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2658,8 +2688,8 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="11" t="s">
         <v>140</v>
       </c>
@@ -2669,8 +2699,8 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="11" t="s">
         <v>141</v>
       </c>
@@ -2735,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2766,10 +2796,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2778,22 +2808,26 @@
       <c r="D2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="11" t="s">
         <v>147</v>
       </c>
@@ -2803,8 +2837,8 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -2814,19 +2848,21 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="11" t="s">
         <v>154</v>
       </c>
@@ -2851,10 +2887,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2866,8 +2902,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="11" t="s">
         <v>157</v>
       </c>
@@ -2877,8 +2913,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="11" t="s">
         <v>158</v>
       </c>
@@ -2886,8 +2922,8 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="11" t="s">
         <v>159</v>
       </c>
@@ -2897,8 +2933,8 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="11" t="s">
         <v>160</v>
       </c>
@@ -2907,21 +2943,21 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="24"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:4" s="23" customFormat="1">
-      <c r="B17" s="24"/>
-      <c r="D17" s="24"/>
+    <row r="14" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4" s="16" customFormat="1">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2941,6 +2977,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
